--- a/ky/downloads/data-excel/5.2.1.1b.xlsx
+++ b/ky/downloads/data-excel/5.2.1.1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="70">
   <si>
     <t>5.2.1.1b Жынысы, курактык топтор, билим деңгээли жана иши боюнча үй-бүлөлүк зомбулуктан жабыр тарткандардын саны</t>
   </si>
@@ -674,18 +674,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="51" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,7 +706,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -731,7 +729,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="5"/>
@@ -749,8 +747,9 @@
       <c r="O3" s="5"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
-    </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R3" s="5"/>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
@@ -802,8 +801,11 @@
       <c r="Q4" s="15">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4" s="15">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
@@ -855,8 +857,11 @@
       <c r="Q5" s="18">
         <v>8725</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5" s="18">
+        <v>11357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>40</v>
       </c>
@@ -880,8 +885,9 @@
       <c r="O6" s="17"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6" s="17"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>41</v>
       </c>
@@ -933,8 +939,11 @@
       <c r="Q7" s="17">
         <v>8347</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7" s="17">
+        <v>11002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>42</v>
       </c>
@@ -986,8 +995,11 @@
       <c r="Q8" s="17">
         <v>378</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8" s="17">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
         <v>53</v>
       </c>
@@ -1011,8 +1023,9 @@
       <c r="O9" s="17"/>
       <c r="P9" s="17"/>
       <c r="Q9" s="17"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>12</v>
       </c>
@@ -1064,8 +1077,11 @@
       <c r="Q10" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1117,8 +1133,11 @@
       <c r="Q11" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R11" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
@@ -1170,8 +1189,11 @@
       <c r="Q12" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>19</v>
       </c>
@@ -1223,8 +1245,11 @@
       <c r="Q13" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R13" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>21</v>
       </c>
@@ -1276,8 +1301,11 @@
       <c r="Q14" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R14" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>45</v>
       </c>
@@ -1307,8 +1335,11 @@
       <c r="Q15" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R15" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -1360,8 +1391,11 @@
       <c r="Q16" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R16" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>47</v>
       </c>
@@ -1413,8 +1447,11 @@
       <c r="Q17" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R17" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>48</v>
       </c>
@@ -1466,8 +1503,11 @@
       <c r="Q18" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R18" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>49</v>
       </c>
@@ -1519,8 +1559,11 @@
       <c r="Q19" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R19" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>50</v>
       </c>
@@ -1572,8 +1615,11 @@
       <c r="Q20" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R20" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" s="21" t="s">
         <v>61</v>
       </c>
@@ -1603,8 +1649,11 @@
       <c r="Q21" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R21" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>62</v>
       </c>
@@ -1656,8 +1705,11 @@
       <c r="Q22" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R22" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>63</v>
       </c>
@@ -1709,8 +1761,11 @@
       <c r="Q23" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R23" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>64</v>
       </c>
@@ -1762,8 +1817,11 @@
       <c r="Q24" s="19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R24" s="19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>65</v>
       </c>
@@ -1815,8 +1873,11 @@
       <c r="Q25" s="20" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R25" s="20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
